--- a/console/Elastic-Compute/Virtual-Machine/components/tagCreator/index.xlsx
+++ b/console/Elastic-Compute/Virtual-Machine/components/tagCreator/index.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\8月分配\SN205-LF0028-180821-console_Output-译文-ZZH处理\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZYYT\Desktop\京东云\_JDC反馈\云主机反馈\Virtual-Machine-En_Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t/>
   </si>
@@ -45,9 +45,6 @@
     <t>resorce_most_10</t>
   </si>
   <si>
-    <t>Each resource can bind a maximum of 10 tags</t>
-  </si>
-  <si>
     <t>add_tag</t>
   </si>
   <si>
@@ -57,9 +54,6 @@
     <t>input_select</t>
   </si>
   <si>
-    <t>Input/Select a Key</t>
-  </si>
-  <si>
     <t>no_key</t>
   </si>
   <si>
@@ -69,9 +63,6 @@
     <t>input_select_value</t>
   </si>
   <si>
-    <t>Input/Select a Value</t>
-  </si>
-  <si>
     <t>no_value</t>
   </si>
   <si>
@@ -93,9 +84,6 @@
     <t>add_tips</t>
   </si>
   <si>
-    <t>Tag key/value only supports Chinese, numbers, capital and lowercase letters, white space and special symbol _.</t>
-  </si>
-  <si>
     <t>cancel</t>
   </si>
   <si>
@@ -111,27 +99,15 @@
     <t>error_tips_one</t>
   </si>
   <si>
-    <t>Length cannot exceed</t>
-  </si>
-  <si>
     <t>error_tips_two</t>
   </si>
   <si>
-    <t>characters</t>
-  </si>
-  <si>
     <t>error_tips_three</t>
   </si>
   <si>
-    <t>'Tag key/value includes the system reserved keyword</t>
-  </si>
-  <si>
     <t>error_tips_four</t>
   </si>
   <si>
-    <t>please use other names';</t>
-  </si>
-  <si>
     <t>error_tips_five</t>
   </si>
   <si>
@@ -249,28 +225,6 @@
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
-      <t>长度不能超过</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>个字符</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
       <t>请输入键名</t>
     </r>
   </si>
@@ -658,6 +612,36 @@
       </rPr>
       <t>keys</t>
     </r>
+  </si>
+  <si>
+    <t>Each resource can bind up to 10 tags</t>
+  </si>
+  <si>
+    <t>Enter/Select a Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tag key/value includes the keyword reserved by system</t>
+  </si>
+  <si>
+    <t>Please change the name';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度不能超过 xxx 字符.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Length cannot exceed xxx characters.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tag key/value includes the keyword reserved by system</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enter/Select a Key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -712,9 +696,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1057,14 +1048,14 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="61.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="122.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.875" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1073,7 +1064,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -1084,7 +1075,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -1095,7 +1086,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
@@ -1106,219 +1097,215 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>34</v>
+        <v>56</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -1326,18 +1313,22 @@
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C1:C24 A1:A24" numberStoredAsText="1"/>
+    <ignoredError sqref="C1:C3 A1:A24 C5 C9:C11 C13:C14 C19:C24 C7" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>